--- a/23 - Matrizes de Rastreabilidade (Características x SSS Incompleto).xlsx
+++ b/23 - Matrizes de Rastreabilidade (Características x SSS Incompleto).xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S2 Thais Linda S2\Documents\(00)Trabalhos Faculdade\Artefatos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S2 Thais Linda S2\Documents\(00)Trabalhos Faculdade\Artefatos\Postados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{286EDD02-1BC3-488D-8E8F-7E886AE18CF2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5B00055-30B9-40C4-BF06-817317ADB58E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4C495BEF-B20F-4A13-89C3-EBEBC95C668C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="39">
   <si>
     <t>#</t>
   </si>
@@ -120,58 +120,28 @@
     <t>C23</t>
   </si>
   <si>
-    <t>C24</t>
-  </si>
-  <si>
-    <t>C25</t>
-  </si>
-  <si>
-    <t>C26</t>
-  </si>
-  <si>
-    <t>C27</t>
-  </si>
-  <si>
-    <t>C28</t>
-  </si>
-  <si>
-    <t>C29</t>
-  </si>
-  <si>
-    <t>C30</t>
-  </si>
-  <si>
-    <t>C31</t>
-  </si>
-  <si>
-    <t>C32</t>
-  </si>
-  <si>
-    <t>C33</t>
-  </si>
-  <si>
-    <t>C34</t>
+    <t>SSS-0008</t>
+  </si>
+  <si>
+    <t>SSS-0009</t>
+  </si>
+  <si>
+    <t>SSS-0010</t>
+  </si>
+  <si>
+    <t>SSS-0011</t>
+  </si>
+  <si>
+    <t>SSS-0012</t>
+  </si>
+  <si>
+    <t>SSS-0013</t>
   </si>
   <si>
     <t>X</t>
   </si>
   <si>
-    <t>SSS-0008</t>
-  </si>
-  <si>
-    <t>SSS-0009</t>
-  </si>
-  <si>
-    <t>SSS-0010</t>
-  </si>
-  <si>
-    <t>SSS-0011</t>
-  </si>
-  <si>
-    <t>SSS-0012</t>
-  </si>
-  <si>
-    <t>SSS-0013</t>
+    <t>SSS-0014</t>
   </si>
 </sst>
 </file>
@@ -246,7 +216,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -256,10 +226,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -575,10 +541,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABA1676F-B74A-4CBF-BCC3-884A9FC75F71}">
-  <dimension ref="A1:AI14"/>
+  <dimension ref="A1:X15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="AE17" sqref="AE17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -586,7 +552,7 @@
     <col min="1" max="1" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" ht="15" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -659,120 +625,56 @@
       <c r="X1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="Y1" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z1" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA1" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB1" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AC1" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AD1" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AE1" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AF1" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="AG1" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="AH1" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="AI1" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:35" ht="15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:24" ht="15" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
+      <c r="H2" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
-      <c r="K2" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>42</v>
-      </c>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
       <c r="M2" s="1"/>
-      <c r="N2" s="1" t="s">
-        <v>42</v>
-      </c>
+      <c r="N2" s="1"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
-      <c r="S2" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y2" s="1"/>
-      <c r="Z2" s="1"/>
-      <c r="AA2" s="1"/>
-      <c r="AB2" s="1"/>
-      <c r="AC2" s="1"/>
-      <c r="AD2" s="1"/>
-      <c r="AE2" s="1"/>
-      <c r="AF2" s="1"/>
-      <c r="AG2" s="1"/>
-      <c r="AH2" s="1"/>
-      <c r="AI2" s="1"/>
-    </row>
-    <row r="3" spans="1:35" ht="15" x14ac:dyDescent="0.3">
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+    </row>
+    <row r="3" spans="1:24" ht="15" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>42</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
@@ -781,53 +683,40 @@
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
+      <c r="Q3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="T3" s="1"/>
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
-      <c r="W3" s="1"/>
+      <c r="W3" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="X3" s="1"/>
-      <c r="Y3" s="1"/>
-      <c r="Z3" s="1"/>
-      <c r="AA3" s="1"/>
-      <c r="AB3" s="1"/>
-      <c r="AC3" s="1"/>
-      <c r="AD3" s="1"/>
-      <c r="AE3" s="1"/>
-      <c r="AF3" s="1"/>
-      <c r="AG3" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AH3" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AI3" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:35" ht="15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:24" ht="15" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="D4" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>42</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -837,46 +726,27 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
-      <c r="R4" s="1" t="s">
-        <v>42</v>
-      </c>
+      <c r="R4" s="1"/>
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
       <c r="U4" s="1"/>
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
       <c r="X4" s="1"/>
-      <c r="Y4" s="1"/>
-      <c r="Z4" s="1"/>
-      <c r="AA4" s="1"/>
-      <c r="AB4" s="1"/>
-      <c r="AC4" s="1"/>
-      <c r="AD4" s="1"/>
-      <c r="AE4" s="1"/>
-      <c r="AF4" s="1"/>
-      <c r="AG4" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AH4" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AI4" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:35" ht="15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:24" ht="15" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
-      <c r="H5" s="1" t="s">
-        <v>42</v>
-      </c>
+      <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
@@ -893,44 +763,29 @@
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
       <c r="X5" s="1"/>
-      <c r="Y5" s="1"/>
-      <c r="Z5" s="1"/>
-      <c r="AA5" s="1"/>
-      <c r="AB5" s="1"/>
-      <c r="AC5" s="1"/>
-      <c r="AD5" s="1"/>
-      <c r="AE5" s="1"/>
-      <c r="AF5" s="1"/>
-      <c r="AG5" s="1"/>
-      <c r="AH5" s="1"/>
-      <c r="AI5" s="1"/>
-    </row>
-    <row r="6" spans="1:35" ht="15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:24" ht="15" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
-      <c r="I6" s="1" t="s">
-        <v>42</v>
-      </c>
+      <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
-      <c r="P6" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q6" s="1" t="s">
-        <v>42</v>
-      </c>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
@@ -938,44 +793,29 @@
       <c r="V6" s="1"/>
       <c r="W6" s="1"/>
       <c r="X6" s="1"/>
-      <c r="Y6" s="1"/>
-      <c r="Z6" s="1"/>
-      <c r="AA6" s="1"/>
-      <c r="AB6" s="1"/>
-      <c r="AC6" s="1"/>
-      <c r="AD6" s="1"/>
-      <c r="AE6" s="1"/>
-      <c r="AF6" s="1"/>
-      <c r="AG6" s="1"/>
-      <c r="AH6" s="1"/>
-      <c r="AI6" s="1"/>
-    </row>
-    <row r="7" spans="1:35" ht="15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:24" ht="15" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="1" t="s">
-        <v>42</v>
-      </c>
+      <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
-      <c r="P7" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q7" s="1" t="s">
-        <v>42</v>
-      </c>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
@@ -983,33 +823,24 @@
       <c r="V7" s="1"/>
       <c r="W7" s="1"/>
       <c r="X7" s="1"/>
-      <c r="Y7" s="1"/>
-      <c r="Z7" s="1"/>
-      <c r="AA7" s="1"/>
-      <c r="AB7" s="1"/>
-      <c r="AC7" s="1"/>
-      <c r="AD7" s="1"/>
-      <c r="AE7" s="1"/>
-      <c r="AF7" s="1"/>
-      <c r="AG7" s="1"/>
-      <c r="AH7" s="1"/>
-      <c r="AI7" s="1"/>
-    </row>
-    <row r="8" spans="1:35" ht="15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:24" ht="15" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
+      <c r="C8" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
+      <c r="F8" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
-      <c r="J8" s="1" t="s">
-        <v>42</v>
-      </c>
+      <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
@@ -1024,32 +855,21 @@
       <c r="V8" s="1"/>
       <c r="W8" s="1"/>
       <c r="X8" s="1"/>
-      <c r="Y8" s="1"/>
-      <c r="Z8" s="1"/>
-      <c r="AA8" s="1"/>
-      <c r="AB8" s="1"/>
-      <c r="AC8" s="1"/>
-      <c r="AD8" s="1"/>
-      <c r="AE8" s="1"/>
-      <c r="AF8" s="1"/>
-      <c r="AG8" s="1"/>
-      <c r="AH8" s="1"/>
-      <c r="AI8" s="1"/>
-    </row>
-    <row r="9" spans="1:35" ht="15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:24" ht="15" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="B9" s="1"/>
-      <c r="C9" s="1" t="s">
-        <v>42</v>
-      </c>
+      <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
+      <c r="I9" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
@@ -1065,21 +885,10 @@
       <c r="V9" s="1"/>
       <c r="W9" s="1"/>
       <c r="X9" s="1"/>
-      <c r="Y9" s="1"/>
-      <c r="Z9" s="1"/>
-      <c r="AA9" s="1"/>
-      <c r="AB9" s="1"/>
-      <c r="AC9" s="1"/>
-      <c r="AD9" s="1"/>
-      <c r="AE9" s="1"/>
-      <c r="AF9" s="1"/>
-      <c r="AG9" s="1"/>
-      <c r="AH9" s="1"/>
-      <c r="AI9" s="1"/>
-    </row>
-    <row r="10" spans="1:35" ht="15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:24" ht="15" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -1088,13 +897,17 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
+      <c r="I10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="L10" s="1"/>
-      <c r="M10" s="1" t="s">
-        <v>42</v>
-      </c>
+      <c r="M10" s="1"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
@@ -1106,27 +919,10 @@
       <c r="V10" s="1"/>
       <c r="W10" s="1"/>
       <c r="X10" s="1"/>
-      <c r="Y10" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z10" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AA10" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB10" s="1"/>
-      <c r="AC10" s="1"/>
-      <c r="AD10" s="1"/>
-      <c r="AE10" s="1"/>
-      <c r="AF10" s="1"/>
-      <c r="AG10" s="1"/>
-      <c r="AH10" s="1"/>
-      <c r="AI10" s="1"/>
-    </row>
-    <row r="11" spans="1:35" ht="15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:24" ht="15" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -1138,9 +934,15 @@
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
+      <c r="L11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
@@ -1151,23 +953,10 @@
       <c r="V11" s="1"/>
       <c r="W11" s="1"/>
       <c r="X11" s="1"/>
-      <c r="Y11" s="1"/>
-      <c r="Z11" s="1"/>
-      <c r="AA11" s="1"/>
-      <c r="AB11" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AC11" s="1"/>
-      <c r="AD11" s="1"/>
-      <c r="AE11" s="1"/>
-      <c r="AF11" s="1"/>
-      <c r="AG11" s="1"/>
-      <c r="AH11" s="1"/>
-      <c r="AI11" s="1"/>
-    </row>
-    <row r="12" spans="1:35" ht="15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:24" ht="15" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -1179,9 +968,15 @@
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
+      <c r="L12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
@@ -1192,34 +987,19 @@
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
       <c r="X12" s="1"/>
-      <c r="Y12" s="1"/>
-      <c r="Z12" s="1"/>
-      <c r="AA12" s="1"/>
-      <c r="AB12" s="1"/>
-      <c r="AC12" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AD12" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AE12" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AF12" s="1"/>
-      <c r="AG12" s="1"/>
-      <c r="AH12" s="1"/>
-      <c r="AI12" s="1"/>
-    </row>
-    <row r="13" spans="1:35" ht="15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:24" ht="15" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
+      <c r="G13" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
@@ -1227,9 +1007,7 @@
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
-      <c r="O13" s="1" t="s">
-        <v>42</v>
-      </c>
+      <c r="O13" s="1"/>
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
@@ -1239,61 +1017,80 @@
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
       <c r="X13" s="1"/>
-      <c r="Y13" s="1"/>
-      <c r="Z13" s="1"/>
-      <c r="AA13" s="1"/>
-      <c r="AB13" s="1"/>
-      <c r="AC13" s="1"/>
-      <c r="AD13" s="1"/>
-      <c r="AE13" s="1"/>
-      <c r="AF13" s="1"/>
-      <c r="AG13" s="1"/>
-      <c r="AH13" s="1"/>
-      <c r="AI13" s="1"/>
-    </row>
-    <row r="14" spans="1:35" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:24" ht="15" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="4"/>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="4"/>
-      <c r="S14" s="4"/>
-      <c r="T14" s="4"/>
-      <c r="U14" s="4"/>
-      <c r="V14" s="4"/>
-      <c r="W14" s="4"/>
-      <c r="X14" s="4"/>
-      <c r="Y14" s="4"/>
-      <c r="Z14" s="4"/>
-      <c r="AA14" s="4"/>
-      <c r="AB14" s="4"/>
-      <c r="AC14" s="4"/>
-      <c r="AD14" s="4"/>
-      <c r="AE14" s="4"/>
-      <c r="AF14" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AG14" s="4"/>
-      <c r="AH14" s="4"/>
-      <c r="AI14" s="4"/>
+        <v>36</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1"/>
+      <c r="W14" s="1"/>
+      <c r="X14" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" ht="15" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="U15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="W15" s="1"/>
+      <c r="X15" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>